--- a/conductor_HTG.xlsx
+++ b/conductor_HTG.xlsx
@@ -7044,10 +7044,10 @@
   <dimension ref="A1:X210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
